--- a/output/google_maps_data_Tempat_Ibadah_Sleman.xlsx
+++ b/output/google_maps_data_Tempat_Ibadah_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Tempat+Ibadah+Sleman/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,25 +520,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.772411</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.772411</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.390256</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DI+yogyakarta,+kabupaten+sleman,+depok/@-7.7724109,110.3181577,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59421287127b:0xe08a2e56839d7c21!8m2!3d-7.7724109!4d110.3902555!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBmNodXJjaOABAA!16s%2Fg%2F11jsl7mt1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DI+yogyakarta,+kabupaten+sleman,+depok/@-7.7724109,110.3181577,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59421287127b:0xe08a2e56839d7c21!8m2!3d-7.7724109!4d110.3902555!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBmNodXJjaOABAA!16s%2Fg%2F11jsl7mt1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -571,25 +564,24 @@
           <t>0899-7895-000</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.77453</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.77453</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.342408</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/IMPACT+KABUPATEN/@-7.7745299,110.2703105,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a599a2cbf8365:0x8f258e0700f72722!8m2!3d-7.7745299!4d110.3424083!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTE1qaHBXblIzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11p3bfdjyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/IMPACT+KABUPATEN/@-7.7745299,110.2703105,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a599a2cbf8365:0x8f258e0700f72722!8m2!3d-7.7745299!4d110.3424083!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTE1qaHBXblIzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11p3bfdjyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -608,25 +600,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.791946</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.791946</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.333588</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GPdI+El+Roi+Banyuraden+Gamping/@-7.7745299,110.2703105,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59e3254725e1:0x69eee02e930ab78f!8m2!3d-7.7919464!4d110.3335878!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11gk8sydc1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GPdI+El+Roi+Banyuraden+Gamping/@-7.7745299,110.2703105,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59e3254725e1:0x69eee02e930ab78f!8m2!3d-7.7919464!4d110.3335878!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11gk8sydc1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -653,25 +644,24 @@
           <t>(0274) 520235</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.768966</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.768966</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.393678</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yohanes+Rasul+Pringwulung/@-7.7689665,110.3215799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59bbfda5865b:0xc6965ae08ecdff84!8m2!3d-7.7689665!4d110.3936777!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTmJtTkhaV1YzRUFF4AEA-gEECAAQKQ!16s%2Fg%2F1hc2908gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yohanes+Rasul+Pringwulung/@-7.7689665,110.3215799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59bbfda5865b:0xc6965ae08ecdff84!8m2!3d-7.7689665!4d110.3936777!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTmJtTkhaV1YzRUFF4AEA-gEECAAQKQ!16s%2Fg%2F1hc2908gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -698,25 +688,24 @@
           <t>(0274) 565036</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>-7.769031</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.769031</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.361147</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+Aletheia+Yogyakarta/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5838a5998795:0x65439448dc27ca33!8m2!3d-7.7690307!4d110.3611465!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdmVITmxaSGxuUlJBQuABAPoBBQiFARA_!16s%2Fg%2F1hc1rrlyz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+Aletheia+Yogyakarta/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5838a5998795:0x65439448dc27ca33!8m2!3d-7.7690307!4d110.3611465!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdmVITmxaSGxuUlJBQuABAPoBBQiFARA_!16s%2Fg%2F1hc1rrlyz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -735,25 +724,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>-7.772566</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.772566</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.373097</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pura+Sanatanagama+UGM+(Pura+Kampus+UGM)/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5991784765e5:0x9ede504dddf884a2!8m2!3d-7.7725657!4d110.3730968!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBDGhpbmR1X3RlbXBsZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMk5TMTJhR1ozRUFF4AEA-gEFCJQBEDQ!16s%2Fg%2F11kjp7d9m4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pura+Sanatanagama+UGM+(Pura+Kampus+UGM)/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5991784765e5:0x9ede504dddf884a2!8m2!3d-7.7725657!4d110.3730968!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBDGhpbmR1X3RlbXBsZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMk5TMTJhR1ozRUFF4AEA-gEFCJQBEDQ!16s%2Fg%2F11kjp7d9m4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -772,25 +760,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.772282</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.772282</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.372973</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Fasilitas+Kerohanian+UGM/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a594af8cc2ecd:0xfbd1cb18f39d0927!8m2!3d-7.7722823!4d110.3729734!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk9jelZFVGtwM0VBReABAPoBBAgAEBw!16s%2Fg%2F11vjpn08lq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Fasilitas+Kerohanian+UGM/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a594af8cc2ecd:0xfbd1cb18f39d0927!8m2!3d-7.7722823!4d110.3729734!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk9jelZFVGtwM0VBReABAPoBBAgAEBw!16s%2Fg%2F11vjpn08lq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -817,25 +804,24 @@
           <t>(0274) 545456</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.753931</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.753931</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.360974</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Star+Global+Cell+Church+GKA+Yogyakarta/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f5e796aaab:0xc5a1033e5beafbb1!8m2!3d-7.7539307!4d110.3609738!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJHRkxRM0ZuUlJBQuABAPoBBAgAECk!16s%2Fg%2F11bzth0487?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Star+Global+Cell+Church+GKA+Yogyakarta/@-7.7690307,110.2890487,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f5e796aaab:0xc5a1033e5beafbb1!8m2!3d-7.7539307!4d110.3609738!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJHRkxRM0ZuUlJBQuABAPoBBAgAECk!16s%2Fg%2F11bzth0487?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -854,25 +840,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.696784</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.696784</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.339722</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ngangkrik+Sleman/@-7.696784,110.2676242,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f17c7894809:0x468705bd99ff031b!8m2!3d-7.696784!4d110.339722!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11rp3qqt5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ngangkrik+Sleman/@-7.696784,110.2676242,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f17c7894809:0x468705bd99ff031b!8m2!3d-7.696784!4d110.339722!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11rp3qqt5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -895,25 +880,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>-7.754468</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.754468</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.368529</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Alfonsus+De+Liguori,+Nandan/@-7.696784,110.2676242,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f80f15def5:0x45e2b1936a96a721!8m2!3d-7.754468!4d110.368529!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1tOXVTMDFuRUFF4AEA-gEECAAQPQ!16s%2Fg%2F11b7lldy08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Alfonsus+De+Liguori,+Nandan/@-7.696784,110.2676242,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f80f15def5:0x45e2b1936a96a721!8m2!3d-7.754468!4d110.368529!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1tOXVTMDFuRUFF4AEA-gEECAAQPQ!16s%2Fg%2F11b7lldy08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -933,22 +917,21 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.762044</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.762044</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.455174</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Ignatius,+Temanggal/@-7.7620439,110.3830766,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5a466d46f6f9:0x5852f39d75d4447b!8m2!3d-7.7620439!4d110.4551744!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ1oyRXlXRkozRUFF4AEA-gEECAAQIw!16s%2Fg%2F11c2pf5lnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,25 +954,24 @@
           <t>0856-4713-7456</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>-7.751447</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.751447</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.356978</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekretariat+Wahdah+Islamiyah+Sleman/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f4f334b013:0xbb9464e484415212!8m2!3d-7.7514474!4d110.3569777!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReGVGOUhhR0YzRUFF4AEA-gEECAAQRg!16s%2Fg%2F11bx0h9zst?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekretariat+Wahdah+Islamiyah+Sleman/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58f4f334b013:0xbb9464e484415212!8m2!3d-7.7514474!4d110.3569777!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReGVGOUhhR0YzRUFF4AEA-gEECAAQRg!16s%2Fg%2F11bx0h9zst?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1008,25 +990,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.772066</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.772066</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.37344</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Kampus+UGM/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59933b81df8b:0xcce52b41fe959bcb!8m2!3d-7.7720664!4d110.37344!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEGNocmlzdGlhbl9jaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm1lSEpFVUdoM1JSQULgAQD6AQQIABAf!16s%2Fg%2F11vbr2dtw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Kampus+UGM/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59933b81df8b:0xcce52b41fe959bcb!8m2!3d-7.7720664!4d110.37344!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEGNocmlzdGlhbl9jaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm1lSEpFVUdoM1JSQULgAQD6AQQIABAf!16s%2Fg%2F11vbr2dtw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1053,25 +1034,24 @@
           <t>0815-7759-738</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>-7.708804</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.708804</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.354492</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Sleman+(GBI+Sleman)/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f49fe950ddf:0x28fcbcb158609fb3!8m2!3d-7.7088039!4d110.3544917!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBDmJhcHRpc3RfY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZW5SbWMwbDNFQUXgAQD6AQQIABAe!16s%2Fg%2F11dyb58f6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Sleman+(GBI+Sleman)/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f49fe950ddf:0x28fcbcb158609fb3!8m2!3d-7.7088039!4d110.3544917!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBDmJhcHRpc3RfY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZW5SbWMwbDNFQUXgAQD6AQQIABAe!16s%2Fg%2F11dyb58f6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1090,25 +1070,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.755135</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.755135</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.363045</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baitul+Muhtadin/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a585e971c6e77:0xa6570fd0f2c1f96c!8m2!3d-7.7551347!4d110.3630452!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1FMHpTbWxSUlJBQuABAPoBBAgAEDg!16s%2Fg%2F1pzxvjw6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baitul+Muhtadin/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a585e971c6e77:0xa6570fd0f2c1f96c!8m2!3d-7.7551347!4d110.3630452!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1FMHpTbWxSUlJBQuABAPoBBAgAEDg!16s%2Fg%2F1pzxvjw6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1135,25 +1114,24 @@
           <t>(0274) 868106</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.735234</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.735234</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.362694</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Aloysius+Gonzaga,+Mlati/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58594176ca51:0xbf92fceab042ff31!8m2!3d-7.7352338!4d110.3626942!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU4yOUVZemxuUlJBQuABAPoBBAgAED0!16s%2Fg%2F1pzpjywn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Aloysius+Gonzaga,+Mlati/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58594176ca51:0xbf92fceab042ff31!8m2!3d-7.7352338!4d110.3626942!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU4yOUVZemxuUlJBQuABAPoBBAgAED0!16s%2Fg%2F1pzpjywn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1180,25 +1158,24 @@
           <t>0852-0122-1111</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.760456</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.760456</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.373299</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Pogung+Dalangan+(MPD)/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5853e585bfa9:0x5883395c1ac1b54!8m2!3d-7.7604563!4d110.3732986!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNNWMweG1kVVpSRUFF4AEA-gEECAAQRg!16s%2Fg%2F11b72rbht9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Pogung+Dalangan+(MPD)/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5853e585bfa9:0x5883395c1ac1b54!8m2!3d-7.7604563!4d110.3732986!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNNWMweG1kVVpSRUFF4AEA-gEECAAQRg!16s%2Fg%2F11b72rbht9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1217,25 +1194,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.777918</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.777918</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.38453</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Manhajul+Hidayah-%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%97%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%B2%EA%A6%B6%EA%A6%A3%EA%A6%AA%EA%A6%83/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59c9628bf163:0xa7c5e3b0aba95b4b!8m2!3d-7.7779183!4d110.3845297!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNdE1IRnViV04zRUFF4AEA-gEECAAQNw!16s%2Fg%2F11b620841j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Manhajul+Hidayah-%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%97%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%B2%EA%A6%B6%EA%A6%A3%EA%A6%AA%EA%A6%83/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59c9628bf163:0xa7c5e3b0aba95b4b!8m2!3d-7.7779183!4d110.3845297!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNdE1IRnViV04zRUFF4AEA-gEECAAQNw!16s%2Fg%2F11b620841j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1258,25 +1234,24 @@
           <t>(0274) 880137</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>-7.741491</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.741491</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.391099</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Keluarga+Kudus+Banteng/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a592d32fb2c2b:0xfe57f644c51d7527!8m2!3d-7.741491!4d110.391099!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGQyTklURkJCRUFF4AEA-gEECAAQLg!16s%2Fg%2F1pzpl4ym1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Keluarga+Kudus+Banteng/@-7.7514474,110.2848799,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a592d32fb2c2b:0xfe57f644c51d7527!8m2!3d-7.741491!4d110.391099!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGQyTklURkJCRUFF4AEA-gEECAAQLg!16s%2Fg%2F1pzpl4ym1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1296,22 +1271,21 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-7.700594</v>
+      </c>
       <c r="G22" t="n">
-        <v>-7.700594</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.458306</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tempat+ibadah/@-7.7005942,110.386208,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5d0010020cf7:0xe5207dfdfc1d6d24!8m2!3d-7.7005942!4d110.4583058!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11y67mhkfp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1327,22 +1301,21 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.767462</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.767462</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.362828</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+MAN+3+Sleman/@-7.7674625,110.2907303,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a598dc7f7c325:0x84def8f7cce35997!8m2!3d-7.7674625!4d110.3628281!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11svm3ylt0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1357,25 +1330,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>-7.762438</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.762438</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.475334</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+An+Nurumi/@-7.7624382,110.4032357,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5af79b0b72db:0x2a229e7a960f836a!8m2!3d-7.7624382!4d110.4753335!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJYSklORGgzUlJBQuABAPoBBAgAEEM!16s%2Fg%2F1pztvyhwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+An+Nurumi/@-7.7624382,110.4032357,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5af79b0b72db:0x2a229e7a960f836a!8m2!3d-7.7624382!4d110.4753335!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJYSklORGgzUlJBQuABAPoBBAgAEEM!16s%2Fg%2F1pztvyhwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1394,25 +1366,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.69335</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.69335</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.311173</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klumprit,+Caturharjo,+Sleman,+Daerah+istimewa+Yogyakarta/@-7.6933501,110.2390749,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af5946a97bd69:0x84b2986bfa79486c!8m2!3d-7.6933501!4d110.3111727!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11g020fhwk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klumprit,+Caturharjo,+Sleman,+Daerah+istimewa+Yogyakarta/@-7.6933501,110.2390749,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af5946a97bd69:0x84b2986bfa79486c!8m2!3d-7.6933501!4d110.3111727!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11g020fhwk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1439,25 +1410,24 @@
           <t>0822-3644-6174</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-7.757737</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.757737</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.3715</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+'Ashri/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58568e6952e5:0x4dd8999505f27b20!8m2!3d-7.7577375!4d110.3714998!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ0xVdEVVVVIzRUFF4AEA-gEECAAQOA!16s%2Fg%2F11c3sy0zxm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+'Ashri/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58568e6952e5:0x4dd8999505f27b20!8m2!3d-7.7577375!4d110.3714998!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ0xVdEVVVVIzRUFF4AEA-gEECAAQOA!16s%2Fg%2F11c3sy0zxm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1484,25 +1454,24 @@
           <t>0852-1144-2024</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>-7.759234</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.759234</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.374572</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Pogung+Raya+(MPR)/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59272f13bb99:0x97b3aaa1aac2cc60!8m2!3d-7.7592341!4d110.3745719!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTU5qaFlZbk5uUlJBQuABAPoBBAhZEDc!16s%2Fg%2F11tw_ndv3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Pogung+Raya+(MPR)/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59272f13bb99:0x97b3aaa1aac2cc60!8m2!3d-7.7592341!4d110.3745719!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTU5qaFlZbk5uUlJBQuABAPoBBAhZEDc!16s%2Fg%2F11tw_ndv3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1529,25 +1498,24 @@
           <t>0852-1144-2024</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>-7.718218</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.718218</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.336304</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus,+Warak/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ab84dd6d45:0xb302677de8308218!8m2!3d-7.7182178!4d110.3363043!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaVgzQnBUalYzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11c58p1m9c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus,+Warak/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ab84dd6d45:0xb302677de8308218!8m2!3d-7.7182178!4d110.3363043!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaVgzQnBUalYzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11c58p1m9c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1566,25 +1534,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.7189</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.7189</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.352689</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKBI+TRIDADI/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58b5da43a8c7:0x33c821c0d75882ad!8m2!3d-7.7189002!4d110.3526894!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEGNocmlzdGlhbl9jaHVyY2jgAQA!16s%2Fg%2F11f2l1flmn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKBI+TRIDADI/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58b5da43a8c7:0x33c821c0d75882ad!8m2!3d-7.7189002!4d110.3526894!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEGNocmlzdGlhbl9jaHVyY2jgAQA!16s%2Fg%2F11f2l1flmn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1603,25 +1570,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>-7.740752</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.740752</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.337697</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Tawakal/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a589b7e096a81:0x985d447c561f4b47!8m2!3d-7.7407524!4d110.3376973!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE9UUXRhRXRuRUFF4AEA-gEECAAQJw!16s%2Fg%2F1pzyr9m7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Tawakal/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a589b7e096a81:0x985d447c561f4b47!8m2!3d-7.7407524!4d110.3376973!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE9UUXRhRXRuRUFF4AEA-gEECAAQJw!16s%2Fg%2F1pzyr9m7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1640,25 +1606,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.720484</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.720484</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.358792</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al-Mahkamah+PN+SLEMAN/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a594cf78c95ef:0x1884fd6fe7e8d9ba!8m2!3d-7.7204844!4d110.3587922!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11t5d1b14h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al-Mahkamah+PN+SLEMAN/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a594cf78c95ef:0x1884fd6fe7e8d9ba!8m2!3d-7.7204844!4d110.3587922!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11t5d1b14h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1681,25 +1646,24 @@
           <t>0815-6802-365</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.708129</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.708129</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.340522</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Annusyuur/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f51a4585179:0xa790b643e8133565!8m2!3d-7.7081287!4d110.3405216!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxjVmxmYTNWM1JSQULgAQD6AQQIABAk!16s%2Fg%2F11b67dstzk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Annusyuur/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f51a4585179:0xa790b643e8133565!8m2!3d-7.7081287!4d110.3405216!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxjVmxmYTNWM1JSQULgAQD6AQQIABAk!16s%2Fg%2F11b67dstzk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1722,25 +1686,24 @@
           <t>0813-2868-8111</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.785676</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.785676</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.337432</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al+Iman/@-7.7856756,110.2653346,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59ac20b5522b:0x11160bd747ec58a0!8m2!3d-7.7856756!4d110.3374324!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11v06dx2tn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al+Iman/@-7.7856756,110.2653346,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59ac20b5522b:0x11160bd747ec58a0!8m2!3d-7.7856756!4d110.3374324!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11v06dx2tn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1759,25 +1722,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.743302</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.743302</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.335436</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+At+Taubah/@-7.7856756,110.2653346,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a589c60bfbf2d:0xcd832e2c6b9ed6e4!8m2!3d-7.7433022!4d110.3354355!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2JHTk1hWGRuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11dx8_yhb6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+At+Taubah/@-7.7856756,110.2653346,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a589c60bfbf2d:0xcd832e2c6b9ed6e4!8m2!3d-7.7433022!4d110.3354355!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2JHTk1hWGRuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11dx8_yhb6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1796,25 +1758,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.701621</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.701621</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.337223</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GEDUNG+PRM+SLEMAN/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f058cbc8e75:0x1fe7606c5342b6e2!8m2!3d-7.7016206!4d110.3372232!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRiMWw2Wms1QkVBReABAPoBBAgAEA4!16s%2Fg%2F11trsw334f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GEDUNG+PRM+SLEMAN/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f058cbc8e75:0x1fe7606c5342b6e2!8m2!3d-7.7016206!4d110.3372232!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRiMWw2Wms1QkVBReABAPoBBAgAEA4!16s%2Fg%2F11trsw334f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1833,25 +1794,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.723658</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.723658</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.357798</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-MAA'UUN,+Kebonagung,+Tridadi,+Sleman/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58c8885aabc7:0x6a1e966143c4e3a0!8m2!3d-7.723658!4d110.3577984!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGNXRmZXbnBCUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c0xp5879?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1874,25 +1834,24 @@
           <t>0822-1880-4845</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.9</v>
+        <v>-7.720195</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.720195</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.361733</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GII+Cornerstone+Jogja/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59cccfaad7e9:0x894ce4dc14807c8d!8m2!3d-7.7201953!4d110.3617326!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGFuWmhjVmxuRUFF4AEA-gEECAAQNw!16s%2Fg%2F11h9rw94w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GII+Cornerstone+Jogja/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59cccfaad7e9:0x894ce4dc14807c8d!8m2!3d-7.7201953!4d110.3617326!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGFuWmhjVmxuRUFF4AEA-gEECAAQNw!16s%2Fg%2F11h9rw94w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1919,25 +1878,24 @@
           <t>0822-1880-4845</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.9</v>
+        <v>-7.762561</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.762561</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.389738</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+%60Ashri+Deresan/@-7.7625608,110.3176397,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59af8c55209f:0x60350dfa8a76e15f!8m2!3d-7.7625608!4d110.3897375!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUU1uVkVjMkZSRUFF4AEA-gEECAAQSQ!16s%2Fg%2F119vdkk9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+%60Ashri+Deresan/@-7.7625608,110.3176397,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59af8c55209f:0x60350dfa8a76e15f!8m2!3d-7.7625608!4d110.3897375!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUU1uVkVjMkZSRUFF4AEA-gEECAAQSQ!16s%2Fg%2F119vdkk9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1956,25 +1914,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.7</v>
+        <v>-7.800779</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.800779</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.475621</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al-Huda/@-7.8007792,110.4035234,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a507d34dd47c1:0x5a950daee8f2aa3d!8m2!3d-7.8007792!4d110.4756212!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRNU1pMTJhRmxSRUFF4AEA-gEECAAQFQ!16s%2Fg%2F11c6vqm75t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al-Huda/@-7.8007792,110.4035234,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a507d34dd47c1:0x5a950daee8f2aa3d!8m2!3d-7.8007792!4d110.4756212!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRNU1pMTJhRmxSRUFF4AEA-gEECAAQFQ!16s%2Fg%2F11c6vqm75t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1993,25 +1950,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.718427</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.718427</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.356044</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Darojatul+'Ulya(%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%9D%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80'%EA%A6%88%EA%A6%AD%EA%A6%BE)/@-7.7184266,110.2839458,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ca15d6145d:0x766daba69c949e3a!8m2!3d-7.7184266!4d110.3560436!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSYVoxbEhSMk4zRUFF4AEA-gEECFoQQw!16s%2Fg%2F11clwkgj_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Darojatul+'Ulya(%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%9D%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80'%EA%A6%88%EA%A6%AD%EA%A6%BE)/@-7.7184266,110.2839458,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ca15d6145d:0x766daba69c949e3a!8m2!3d-7.7184266!4d110.3560436!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSYVoxbEhSMk4zRUFF4AEA-gEECFoQQw!16s%2Fg%2F11clwkgj_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2030,25 +1986,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.714108</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.714108</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.336533</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Al-Qur'an/@-7.7184266,110.2839458,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f54a176962d:0x418b29a1f74937c!8m2!3d-7.7141077!4d110.3365328!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bzrlblfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2064,22 +2019,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.710291</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.710291</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.332453</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RUMAH+KHOIRUL/@-7.7184266,110.2839458,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f3c36c2b8f3:0x33b3cdc695845763!8m2!3d-7.7102908!4d110.3324527!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBnNocmluZeABAA!16s%2Fg%2F11s4gxftd3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2094,25 +2048,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.768895</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.768895</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.322887</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asrama+Al+uswah+MAN+1+Sleman/@-7.7688946,110.2507887,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af737147a6f67:0x2cac8f0e1b83d058!8m2!3d-7.7688946!4d110.3228865!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11tf0xctm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asrama+Al+uswah+MAN+1+Sleman/@-7.7688946,110.2507887,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af737147a6f67:0x2cac8f0e1b83d058!8m2!3d-7.7688946!4d110.3228865!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11tf0xctm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2131,25 +2084,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>-7.788547</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.788547</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.341617</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Asel/@-7.7688946,110.2507887,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58053ea056f9:0xc1b845636b412063!8m2!3d-7.7885471!4d110.3416168!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd01rMTVObmhSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11b64bxxty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Asel/@-7.7688946,110.2507887,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58053ea056f9:0xc1b845636b412063!8m2!3d-7.7885471!4d110.3416168!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd01rMTVObmhSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11b64bxxty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2168,25 +2120,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>-7.714889</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.714889</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.360718</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Hussah+Saud+Baitul+Jamal+(Masjid+Dusun+Ngancar)/@-7.7148888,110.2886206,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59046217e7d1:0xcba809a71f23b6ef!8m2!3d-7.7148888!4d110.3607184!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11g24px372?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2201,25 +2152,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>-7.708683</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.708683</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.328328</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/El-SHOLICH+DJOGJA/@-7.7148888,110.2886206,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af5f8e48fa115:0x72f2805ee0ec3697!8m2!3d-7.7086835!4d110.3283284!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11btrrqj0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2234,25 +2184,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>-7.742343</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.742343</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.450853</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ar+Rahman/@-7.7423429,110.3787555,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5be324ac1739:0x4a5c9cbd1c4d4afd!8m2!3d-7.7423429!4d110.4508533!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2JHVmhjek5uUlJBQuABAPoBBAgAEEI!16s%2Fg%2F11fs2l_6jp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ar+Rahman/@-7.7423429,110.3787555,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5be324ac1739:0x4a5c9cbd1c4d4afd!8m2!3d-7.7423429!4d110.4508533!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2JHVmhjek5uUlJBQuABAPoBBAgAEEI!16s%2Fg%2F11fs2l_6jp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2271,25 +2220,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.704078</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.704078</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.344476</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+AT-TAUBAH/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f4566fc51f1:0xf2ea60b687262db!8m2!3d-7.7040785!4d110.3444758!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRka3RsVTJSQkVBReABAPoBBAgAEBw!16s%2Fg%2F11cp5rbqfk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2312,25 +2260,24 @@
           <t>(0274) 869536</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.8</v>
+        <v>-7.714397</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.714397</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.355413</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Agung+Sleman+dr.+Wahidin+Soedirohoesodo/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58c9f87f86d3:0x7fe593d75aa362d2!8m2!3d-7.7143975!4d110.355413!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMWRFMVBja2huRUFF4AEA-gEECAAQPw!16s%2Fg%2F1pzt2vd3c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Agung+Sleman+dr.+Wahidin+Soedirohoesodo/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58c9f87f86d3:0x7fe593d75aa362d2!8m2!3d-7.7143975!4d110.355413!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMWRFMVBja2huRUFF4AEA-gEECAAQPw!16s%2Fg%2F1pzt2vd3c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -2349,25 +2296,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.7</v>
+        <v>-7.701357</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.701357</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.346419</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Besar+Sleman+Kota+%E2%80%A2+(+MBSK+)/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f4450f3b4c5:0x119409996d46d9e2!8m2!3d-7.7013571!4d110.3464188!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT0xYWjVTSEozUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11b66g3m39?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Besar+Sleman+Kota+%E2%80%A2+(+MBSK+)/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f4450f3b4c5:0x119409996d46d9e2!8m2!3d-7.7013571!4d110.3464188!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT0xYWjVTSEozUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11b66g3m39?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2386,25 +2332,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.726875</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.726875</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.332442</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+AS+SALAM+Gabahan+Sumberadi+Mlati+Kabupaten+Sleman+Daerah+Istimewa+Yogyakarta/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59921011d9a3:0x933a85f25ea1b942!8m2!3d-7.7268752!4d110.3324422!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOVWFIQnRSSFpCUlJBQuABAPoBBAgAEDE!16s%2Fg%2F11gwlbzt7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2419,25 +2364,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>-7.742305</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.742305</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.330045</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ketingan/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af7cff1b085d1:0xee868897f29a886f!8m2!3d-7.7423055!4d110.3300445!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSRVowMW1NRWRSRUFF4AEA-gEECAAQOg!16s%2Fg%2F11g1gnn1v4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2452,25 +2396,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>-7.706676</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.706676</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.337056</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Huda+Kantongan+RW+11+%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A2%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%B2%EA%A6%B8%EA%A6%A2%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%94%EA%A6%A4%EA%A7%80%EA%A6%AB%EA%A7%80%EA%A6%AE%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%91%EA%A7%87%EA%A7%89/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f50ccf2c963:0xa6465f4b49bb2a03!8m2!3d-7.7066764!4d110.3370559!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2NrbDJRMVYzRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11clvxlf83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Huda+Kantongan+RW+11+%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A2%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%B2%EA%A6%B8%EA%A6%A2%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%94%EA%A6%A4%EA%A7%80%EA%A6%AB%EA%A7%80%EA%A6%AE%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%91%EA%A7%87%EA%A7%89/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f50ccf2c963:0xa6465f4b49bb2a03!8m2!3d-7.7066764!4d110.3370559!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2NrbDJRMVYzRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11clvxlf83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2489,25 +2432,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.719689</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.719689</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.326294</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LANGGAR+CANDI/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af7554975a6ab:0x83672163d0906e60!8m2!3d-7.7196894!4d110.3262936!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11j84xqwgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LANGGAR+CANDI/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7af7554975a6ab:0x83672163d0906e60!8m2!3d-7.7196894!4d110.3262936!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11j84xqwgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2534,25 +2476,24 @@
           <t>0822-6456-0909</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.718969</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.718969</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.369017</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Suciati+Saliman/@-7.7040785,110.272378,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58d1869cec43:0xdde220bbf1dd056d!8m2!3d-7.7189694!4d110.3690168!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSbGJuSk1hek5uUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11cmhk6db3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2568,22 +2509,21 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.768059</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.768059</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.410645</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Arrahman+Seturan/@-7.7680591,110.3385468,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59000fbbcfad:0x8503ff5d5a3d86d4!8m2!3d-7.7680591!4d110.4106446!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbpIBBm1vc3F1ZeABAA!16s%2Fg%2F11wwpy0d3r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2606,25 +2546,24 @@
           <t>(0274) 868331</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.8</v>
+        <v>-7.687765</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.687765</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.342978</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Medari+(Induk)+Murangan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f791249c2e3:0x41fd6ec56429287e!8m2!3d-7.6877646!4d110.3429783!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGQxQjFSRU5SRUFF4AEA-gEECAAQNQ!16s%2Fg%2F1pzxyrhwn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Medari+(Induk)+Murangan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f791249c2e3:0x41fd6ec56429287e!8m2!3d-7.6877646!4d110.3429783!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGQxQjFSRU5SRUFF4AEA-gEECAAQNQ!16s%2Fg%2F1pzxyrhwn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2647,25 +2586,24 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.732881</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.732881</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.33919</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Quran+Azzakiyyah+Gandekan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a597b2735e77d:0x670e6db999d4f5c3!8m2!3d-7.7328807!4d110.3391903!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdGFUa3RRV1ozRUFF4AEA-gEECHcQKQ!16s%2Fg%2F11rk5c408s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2680,25 +2618,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.8</v>
+        <v>-7.716597</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.716597</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.346012</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Baiturrahman+Pangukan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58b303c781fb:0x97153d9aec73792e!8m2!3d-7.7165969!4d110.3460118!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMWFFbHRjVVozRUFF4AEA-gEECAAQFA!16s%2Fg%2F11dfh3y43l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2713,25 +2650,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.4</v>
+        <v>-7.716511</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.716511</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.339273</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Cibukan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ace724b2ff:0xa3e25881fffa46c3!8m2!3d-7.7165112!4d110.3392731!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdVgxQTNUVGxuUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11clzkltrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Cibukan/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ace724b2ff:0xa3e25881fffa46c3!8m2!3d-7.7165112!4d110.3392731!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdVgxQTNUVGxuUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11clzkltrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2750,25 +2686,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.7</v>
+        <v>-7.713344</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.713344</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.332441</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Uswatun+Hasanah/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f5574d64ef1:0x614e80e90639f961!8m2!3d-7.7133445!4d110.3324406!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeFh6ZHFXQzEzUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11cjj1hksh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Uswatun+Hasanah/@-7.6877646,110.2708805,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a5f5574d64ef1:0x614e80e90639f961!8m2!3d-7.7133445!4d110.3324406!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeFh6ZHFXQzEzUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11cjj1hksh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
